--- a/input/filters not in use/j_filter_AFOLU.xlsx
+++ b/input/filters not in use/j_filter_AFOLU.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Masenda\Thinkpad machine\Documents\Softwares\ENGINEERING\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\OneDrive\Desktop\ESRG DDPT template\DDPTemplateAutomationVFinal\input\filters not in use\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D37DF7-B4EF-465A-9A7B-6B9DB16AF3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA67B51-44D4-49AB-A928-F2120D69622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFOLU (DB)_REF" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +38,7 @@
     <author>Joseph Masenda</author>
   </authors>
   <commentList>
-    <comment ref="H220" authorId="0" shapeId="0" xr:uid="{AC1A01C5-5CBD-4E96-975C-747D6BFCE44F}">
+    <comment ref="H219" authorId="0" shapeId="0" xr:uid="{AC1A01C5-5CBD-4E96-975C-747D6BFCE44F}">
       <text>
         <r>
           <rPr>
@@ -55,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="136">
   <si>
     <t>Process</t>
   </si>
@@ -454,13 +467,22 @@
   </si>
   <si>
     <t>NZ10_2050A_08EESSNXCT_IMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Aviation Gasoline', 'Coal', 'Electricity', 'Gas', 'Gasoline', 'HFO', 'Kerosene', 'LPG'] </t>
+  </si>
+  <si>
+    <t>['Biogas', 'Biowood', 'Hydrogen']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Aviation Gasoline', 'Coal', 'Gas', 'Gasoline', 'HFO', 'Kerosene', 'LPG'] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,12 +524,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -522,12 +556,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,18 +868,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62423D76-5942-4840-A55F-D817CFCDC3DB}">
-  <dimension ref="A1:U368"/>
+  <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.77734375" customWidth="1"/>
@@ -855,7 +894,7 @@
     <col min="21" max="21" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -920,7 +959,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -985,7 +1024,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="3" customFormat="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1014,7 +1053,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="3" customFormat="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1043,7 +1082,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="3" customFormat="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1072,7 +1111,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="3" customFormat="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1101,7 +1140,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="3" customFormat="1">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1130,7 +1169,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="3" customFormat="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1195,7 +1234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="3" customFormat="1">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1260,7 +1299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1289,7 +1328,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="3" customFormat="1">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1318,7 +1357,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1347,7 +1386,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="3" customFormat="1">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1376,7 +1415,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="3" customFormat="1">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1405,7 +1444,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="3" customFormat="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1470,7 +1509,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1535,7 +1574,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="3" customFormat="1">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1600,7 +1639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="3" customFormat="1">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1665,7 +1704,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1730,7 +1769,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1795,7 +1834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1811,7 +1850,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1827,7 +1866,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1843,7 +1882,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="3" customFormat="1">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1872,7 +1911,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="3" customFormat="1">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1901,7 +1940,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1966,7 +2005,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2031,7 +2070,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2096,7 +2135,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -2161,7 +2200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2226,7 +2265,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -2244,7 +2283,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="3" customFormat="1">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -2309,7 +2348,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="3" customFormat="1">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2374,7 +2413,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="3" customFormat="1">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2403,7 +2442,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2432,7 +2471,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="3" customFormat="1">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2461,7 +2500,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="3" customFormat="1">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2526,7 +2565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -2591,7 +2630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" s="3" customFormat="1">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2656,7 +2695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -2721,7 +2760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -2786,7 +2825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -2851,7 +2890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="3" customFormat="1">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -2916,7 +2955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="3" customFormat="1">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -2981,7 +3020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="3" customFormat="1">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -3046,7 +3085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" s="1" customFormat="1">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -3111,7 +3150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -3140,7 +3179,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -3203,7 +3242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -3266,7 +3305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -3295,7 +3334,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" s="3" customFormat="1">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -3360,7 +3399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -3425,7 +3464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3490,7 +3529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -3555,7 +3594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3620,7 +3659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -3685,7 +3724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" s="3" customFormat="1">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -3750,7 +3789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" s="3" customFormat="1">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -3815,7 +3854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -3880,7 +3919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="3" customFormat="1">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -3945,7 +3984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="1" customFormat="1">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -4010,7 +4049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -4039,7 +4078,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -4068,7 +4107,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" s="3" customFormat="1">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -4097,7 +4136,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" s="3" customFormat="1">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -4162,7 +4201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" s="3" customFormat="1">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -4227,7 +4266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" s="3" customFormat="1">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -4256,7 +4295,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -4321,7 +4360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -4386,7 +4425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -4451,7 +4490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -4516,7 +4555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" s="3" customFormat="1">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -4545,7 +4584,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -4610,7 +4649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -4675,7 +4714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -4740,7 +4779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -4805,7 +4844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -4870,7 +4909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -4935,7 +4974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -4964,7 +5003,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -5029,7 +5068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -5094,7 +5133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -5159,7 +5198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -5188,7 +5227,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -5253,7 +5292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -5318,195 +5357,267 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>1</v>
-      </c>
-      <c r="B86" s="1">
-        <v>20</v>
-      </c>
-      <c r="C86" s="1">
-        <v>106</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-    </row>
-    <row r="87" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>1</v>
-      </c>
-      <c r="B87" s="1">
-        <v>20</v>
-      </c>
-      <c r="C87" s="1">
+    <row r="86" spans="1:21" s="5" customFormat="1">
+      <c r="A86" s="5">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5">
+        <v>20</v>
+      </c>
+      <c r="C86" s="5">
         <v>107</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="D86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H86" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" s="1" t="s">
+      <c r="I86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S87" s="1" t="s">
+      <c r="K86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S86" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U87" s="2" t="s">
+      <c r="T86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U86" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>1</v>
-      </c>
-      <c r="B88" s="1">
-        <v>20</v>
-      </c>
-      <c r="C88" s="1">
+    <row r="87" spans="1:21" s="5" customFormat="1">
+      <c r="A87" s="5">
+        <v>1</v>
+      </c>
+      <c r="B87" s="5">
+        <v>20</v>
+      </c>
+      <c r="C87" s="5">
+        <v>110</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U87" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="5" customFormat="1">
+      <c r="A88" s="5">
+        <v>1</v>
+      </c>
+      <c r="B88" s="5">
+        <v>20</v>
+      </c>
+      <c r="C88" s="5">
         <v>108</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="D88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" s="1" t="s">
+      <c r="I88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U88" s="2" t="s">
+      <c r="K88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U88" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>1</v>
-      </c>
-      <c r="B89" s="1">
-        <v>20</v>
-      </c>
-      <c r="C89" s="1">
+    <row r="89" spans="1:21" s="5" customFormat="1">
+      <c r="A89" s="5">
+        <v>1</v>
+      </c>
+      <c r="B89" s="5">
+        <v>20</v>
+      </c>
+      <c r="C89" s="5">
         <v>109</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S89" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U89" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -5514,28 +5625,64 @@
         <v>20</v>
       </c>
       <c r="C90" s="1">
-        <v>110</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -5543,7 +5690,7 @@
         <v>20</v>
       </c>
       <c r="C91" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>21</v>
@@ -5567,7 +5714,7 @@
         <v>28</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>21</v>
@@ -5600,7 +5747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -5608,93 +5755,93 @@
         <v>20</v>
       </c>
       <c r="C92" s="1">
-        <v>112</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1">
+        <v>20</v>
+      </c>
+      <c r="C93" s="1">
+        <v>116</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>1</v>
-      </c>
-      <c r="B93" s="1">
-        <v>20</v>
-      </c>
-      <c r="C93" s="1">
-        <v>113</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -5702,7 +5849,7 @@
         <v>20</v>
       </c>
       <c r="C94" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>21</v>
@@ -5726,7 +5873,7 @@
         <v>46</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>21</v>
@@ -5759,7 +5906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -5767,7 +5914,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>21</v>
@@ -5791,7 +5938,7 @@
         <v>46</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>21</v>
@@ -5824,7 +5971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -5832,7 +5979,7 @@
         <v>20</v>
       </c>
       <c r="C96" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>21</v>
@@ -5856,7 +6003,7 @@
         <v>46</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>21</v>
@@ -5889,7 +6036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -5897,7 +6044,7 @@
         <v>20</v>
       </c>
       <c r="C97" s="1">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>21</v>
@@ -5921,7 +6068,7 @@
         <v>46</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>21</v>
@@ -5954,7 +6101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -5962,7 +6109,7 @@
         <v>20</v>
       </c>
       <c r="C98" s="1">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>21</v>
@@ -5986,7 +6133,7 @@
         <v>46</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>21</v>
@@ -6019,7 +6166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -6027,7 +6174,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>21</v>
@@ -6051,7 +6198,7 @@
         <v>46</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>21</v>
@@ -6084,7 +6231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -6092,7 +6239,7 @@
         <v>20</v>
       </c>
       <c r="C100" s="1">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>21</v>
@@ -6116,7 +6263,7 @@
         <v>46</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>21</v>
@@ -6149,7 +6296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -6157,7 +6304,7 @@
         <v>20</v>
       </c>
       <c r="C101" s="1">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>21</v>
@@ -6181,7 +6328,7 @@
         <v>46</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>21</v>
@@ -6214,7 +6361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -6222,93 +6369,93 @@
         <v>20</v>
       </c>
       <c r="C102" s="1">
-        <v>122</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1">
+        <v>20</v>
+      </c>
+      <c r="C103" s="1">
+        <v>126</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U102" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>1</v>
-      </c>
-      <c r="B103" s="1">
-        <v>20</v>
-      </c>
-      <c r="C103" s="1">
-        <v>123</v>
-      </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -6316,7 +6463,7 @@
         <v>20</v>
       </c>
       <c r="C104" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>21</v>
@@ -6340,7 +6487,7 @@
         <v>28</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>21</v>
@@ -6373,7 +6520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -6381,93 +6528,93 @@
         <v>20</v>
       </c>
       <c r="C105" s="1">
-        <v>125</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>20</v>
+      </c>
+      <c r="C106" s="1">
+        <v>129</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J105" s="2" t="s">
+      <c r="H106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U105" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>1</v>
-      </c>
-      <c r="B106" s="1">
-        <v>20</v>
-      </c>
-      <c r="C106" s="1">
-        <v>126</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -6475,7 +6622,7 @@
         <v>20</v>
       </c>
       <c r="C107" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>21</v>
@@ -6499,7 +6646,7 @@
         <v>28</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>21</v>
@@ -6532,7 +6679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -6540,7 +6687,7 @@
         <v>20</v>
       </c>
       <c r="C108" s="1">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>21</v>
@@ -6564,7 +6711,7 @@
         <v>28</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>21</v>
@@ -6597,195 +6744,267 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>1</v>
-      </c>
-      <c r="B109" s="1">
-        <v>20</v>
-      </c>
-      <c r="C109" s="1">
+    <row r="109" spans="1:21" s="7" customFormat="1">
+      <c r="A109" s="7">
+        <v>1</v>
+      </c>
+      <c r="B109" s="7">
+        <v>20</v>
+      </c>
+      <c r="C109" s="7">
+        <v>133</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S109" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U109" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" s="2" t="s">
+    </row>
+    <row r="110" spans="1:21" s="5" customFormat="1">
+      <c r="A110" s="5">
+        <v>1</v>
+      </c>
+      <c r="B110" s="5">
+        <v>20</v>
+      </c>
+      <c r="C110" s="5">
+        <v>134</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U109" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>1</v>
-      </c>
-      <c r="B110" s="1">
-        <v>20</v>
-      </c>
-      <c r="C110" s="1">
-        <v>130</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-    </row>
-    <row r="111" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>1</v>
-      </c>
-      <c r="B111" s="1">
-        <v>20</v>
-      </c>
-      <c r="C111" s="1">
-        <v>131</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="H110" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U110" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" s="5" customFormat="1">
+      <c r="A111" s="5">
+        <v>1</v>
+      </c>
+      <c r="B111" s="5">
+        <v>20</v>
+      </c>
+      <c r="C111" s="5">
+        <v>135</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H111" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J111" s="1" t="s">
+      <c r="I111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U111" s="2" t="s">
+      <c r="K111" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S111" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U111" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>1</v>
-      </c>
-      <c r="B112" s="1">
-        <v>20</v>
-      </c>
-      <c r="C112" s="1">
+    <row r="112" spans="1:21" s="5" customFormat="1">
+      <c r="A112" s="5">
+        <v>1</v>
+      </c>
+      <c r="B112" s="5">
+        <v>20</v>
+      </c>
+      <c r="C112" s="5">
+        <v>136</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-    </row>
-    <row r="113" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H112" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S112" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U112" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" s="1" customFormat="1">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -6793,7 +7012,7 @@
         <v>20</v>
       </c>
       <c r="C113" s="1">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>21</v>
@@ -6850,7 +7069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" s="1" customFormat="1">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -6858,7 +7077,7 @@
         <v>20</v>
       </c>
       <c r="C114" s="1">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>21</v>
@@ -6915,7 +7134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" s="1" customFormat="1">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -6923,7 +7142,7 @@
         <v>20</v>
       </c>
       <c r="C115" s="1">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>21</v>
@@ -6980,7 +7199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" s="1" customFormat="1">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -6988,7 +7207,7 @@
         <v>20</v>
       </c>
       <c r="C116" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>21</v>
@@ -7045,7 +7264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" s="1" customFormat="1">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -7053,7 +7272,7 @@
         <v>20</v>
       </c>
       <c r="C117" s="1">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>21</v>
@@ -7110,7 +7329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" s="1" customFormat="1">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -7118,7 +7337,7 @@
         <v>20</v>
       </c>
       <c r="C118" s="1">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>21</v>
@@ -7175,7 +7394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" s="1" customFormat="1">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -7183,7 +7402,7 @@
         <v>20</v>
       </c>
       <c r="C119" s="1">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>21</v>
@@ -7240,7 +7459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" s="1" customFormat="1">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -7248,7 +7467,7 @@
         <v>20</v>
       </c>
       <c r="C120" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>21</v>
@@ -7305,7 +7524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" s="1" customFormat="1">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -7313,7 +7532,7 @@
         <v>20</v>
       </c>
       <c r="C121" s="1">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>21</v>
@@ -7370,7 +7589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" s="1" customFormat="1">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -7378,7 +7597,7 @@
         <v>20</v>
       </c>
       <c r="C122" s="1">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>21</v>
@@ -7435,7 +7654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -7443,7 +7662,7 @@
         <v>20</v>
       </c>
       <c r="C123" s="1">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -7464,7 +7683,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -7472,7 +7691,7 @@
         <v>20</v>
       </c>
       <c r="C124" s="1">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -7493,7 +7712,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" s="1" customFormat="1">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -7501,7 +7720,7 @@
         <v>20</v>
       </c>
       <c r="C125" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>21</v>
@@ -7558,7 +7777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -7566,7 +7785,7 @@
         <v>20</v>
       </c>
       <c r="C126" s="1">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -7587,7 +7806,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -7595,7 +7814,7 @@
         <v>20</v>
       </c>
       <c r="C127" s="1">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>21</v>
@@ -7652,7 +7871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -7660,7 +7879,7 @@
         <v>20</v>
       </c>
       <c r="C128" s="1">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>21</v>
@@ -7717,7 +7936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -7725,7 +7944,7 @@
         <v>20</v>
       </c>
       <c r="C129" s="1">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -7746,7 +7965,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -7754,7 +7973,7 @@
         <v>20</v>
       </c>
       <c r="C130" s="1">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>21</v>
@@ -7811,7 +8030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21">
       <c r="A131" s="1">
         <v>1</v>
       </c>
@@ -7819,7 +8038,7 @@
         <v>20</v>
       </c>
       <c r="C131" s="1">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>21</v>
@@ -7876,7 +8095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21">
       <c r="A132" s="1">
         <v>1</v>
       </c>
@@ -7884,7 +8103,7 @@
         <v>20</v>
       </c>
       <c r="C132" s="1">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -7905,7 +8124,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21">
       <c r="A133" s="1">
         <v>1</v>
       </c>
@@ -7913,7 +8132,7 @@
         <v>20</v>
       </c>
       <c r="C133" s="1">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>21</v>
@@ -7970,7 +8189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134" s="1">
         <v>1</v>
       </c>
@@ -7978,7 +8197,7 @@
         <v>20</v>
       </c>
       <c r="C134" s="1">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>21</v>
@@ -8035,7 +8254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -8043,7 +8262,7 @@
         <v>20</v>
       </c>
       <c r="C135" s="1">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -8064,7 +8283,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136" s="1">
         <v>1</v>
       </c>
@@ -8072,7 +8291,7 @@
         <v>20</v>
       </c>
       <c r="C136" s="1">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>21</v>
@@ -8129,7 +8348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21">
       <c r="A137" s="1">
         <v>1</v>
       </c>
@@ -8137,7 +8356,7 @@
         <v>20</v>
       </c>
       <c r="C137" s="1">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>21</v>
@@ -8194,7 +8413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21">
       <c r="A138" s="1">
         <v>1</v>
       </c>
@@ -8202,7 +8421,7 @@
         <v>20</v>
       </c>
       <c r="C138" s="1">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>21</v>
@@ -8259,7 +8478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139" s="1">
         <v>1</v>
       </c>
@@ -8267,7 +8486,7 @@
         <v>20</v>
       </c>
       <c r="C139" s="1">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -8288,7 +8507,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -8296,7 +8515,7 @@
         <v>20</v>
       </c>
       <c r="C140" s="1">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -8317,7 +8536,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21">
       <c r="A141" s="1">
         <v>1</v>
       </c>
@@ -8325,7 +8544,7 @@
         <v>20</v>
       </c>
       <c r="C141" s="1">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>21</v>
@@ -8382,7 +8601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142" s="1">
         <v>1</v>
       </c>
@@ -8390,7 +8609,7 @@
         <v>20</v>
       </c>
       <c r="C142" s="1">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>21</v>
@@ -8447,7 +8666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -8455,7 +8674,7 @@
         <v>20</v>
       </c>
       <c r="C143" s="1">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>21</v>
@@ -8512,7 +8731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21">
       <c r="A144" s="1">
         <v>1</v>
       </c>
@@ -8520,7 +8739,7 @@
         <v>20</v>
       </c>
       <c r="C144" s="1">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -8541,7 +8760,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21">
       <c r="A145" s="1">
         <v>1</v>
       </c>
@@ -8549,7 +8768,7 @@
         <v>20</v>
       </c>
       <c r="C145" s="1">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>21</v>
@@ -8606,39 +8825,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>1</v>
-      </c>
-      <c r="B146" s="1">
-        <v>20</v>
-      </c>
-      <c r="C146" s="1">
-        <v>166</v>
-      </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+    <row r="146" spans="1:21">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -8657,7 +8869,7 @@
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8679,51 +8891,51 @@
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-      <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-      <c r="S149" s="3"/>
-      <c r="T149" s="3"/>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8745,73 +8957,73 @@
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="3"/>
-      <c r="N152" s="3"/>
-      <c r="O152" s="3"/>
-      <c r="P152" s="3"/>
-      <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
-      <c r="S152" s="3"/>
-      <c r="T152" s="3"/>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
-      <c r="O154" s="3"/>
-      <c r="P154" s="3"/>
-      <c r="Q154" s="3"/>
-      <c r="R154" s="3"/>
-      <c r="S154" s="3"/>
-      <c r="T154" s="3"/>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8833,7 +9045,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8855,29 +9067,29 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8899,7 +9111,7 @@
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8921,29 +9133,29 @@
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="3"/>
-      <c r="N160" s="3"/>
-      <c r="O160" s="3"/>
-      <c r="P160" s="3"/>
-      <c r="Q160" s="3"/>
-      <c r="R160" s="3"/>
-      <c r="S160" s="3"/>
-      <c r="T160" s="3"/>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8965,7 +9177,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8987,7 +9199,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9009,7 +9221,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9031,73 +9243,60 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
-      <c r="T165" s="1"/>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
-      <c r="O166" s="3"/>
-      <c r="P166" s="3"/>
-      <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-      <c r="S166" s="3"/>
-      <c r="T166" s="3"/>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+    </row>
+    <row r="167" spans="1:20">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9106,22 +9305,35 @@
       <c r="F168" s="1"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:20">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9143,187 +9355,188 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="3"/>
-      <c r="N173" s="3"/>
-      <c r="O173" s="3"/>
-      <c r="P173" s="3"/>
-      <c r="Q173" s="3"/>
-      <c r="R173" s="3"/>
-      <c r="S173" s="3"/>
-      <c r="T173" s="3"/>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+    </row>
+    <row r="173" spans="1:20">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+    </row>
+    <row r="174" spans="1:20">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-    </row>
-    <row r="178" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+    </row>
+    <row r="177" spans="1:21" s="3" customFormat="1">
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="U177"/>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
+      <c r="I178" s="3"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
-      <c r="U178"/>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="3"/>
-      <c r="N179" s="3"/>
-      <c r="O179" s="3"/>
-      <c r="P179" s="3"/>
-      <c r="Q179" s="3"/>
-      <c r="R179" s="3"/>
-      <c r="S179" s="3"/>
-      <c r="T179" s="3"/>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
-      <c r="Q181" s="3"/>
-      <c r="R181" s="3"/>
-      <c r="S181" s="3"/>
-      <c r="T181" s="3"/>
-    </row>
-    <row r="182" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3"/>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+    </row>
+    <row r="181" spans="1:21" s="1" customFormat="1">
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="U181"/>
+    </row>
+    <row r="182" spans="1:21" s="3" customFormat="1">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
+      <c r="I182" s="1"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
       <c r="U182"/>
     </row>
-    <row r="183" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" s="3" customFormat="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9346,61 +9559,61 @@
       <c r="T183" s="1"/>
       <c r="U183"/>
     </row>
-    <row r="184" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
+    <row r="184" spans="1:21" s="1" customFormat="1">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
       <c r="U184"/>
     </row>
-    <row r="185" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
+    <row r="185" spans="1:21" s="3" customFormat="1">
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-      <c r="I185" s="3"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
-      <c r="O185" s="3"/>
-      <c r="P185" s="3"/>
-      <c r="Q185" s="3"/>
-      <c r="R185" s="3"/>
-      <c r="S185" s="3"/>
-      <c r="T185" s="3"/>
       <c r="U185"/>
     </row>
-    <row r="186" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" s="1" customFormat="1">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
+      <c r="I186" s="3"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
       <c r="U186"/>
     </row>
-    <row r="187" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" s="1" customFormat="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -9423,38 +9636,38 @@
       <c r="T187" s="3"/>
       <c r="U187"/>
     </row>
-    <row r="188" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
-      <c r="P188" s="3"/>
-      <c r="Q188" s="3"/>
-      <c r="R188" s="3"/>
-      <c r="S188" s="3"/>
-      <c r="T188" s="3"/>
+    <row r="188" spans="1:21" s="1" customFormat="1">
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
       <c r="U188"/>
     </row>
-    <row r="189" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" s="3" customFormat="1">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
+      <c r="I189" s="1"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
       <c r="U189"/>
     </row>
-    <row r="190" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" s="3" customFormat="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9477,7 +9690,7 @@
       <c r="T190" s="1"/>
       <c r="U190"/>
     </row>
-    <row r="191" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" s="3" customFormat="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -9500,38 +9713,35 @@
       <c r="T191" s="1"/>
       <c r="U191"/>
     </row>
-    <row r="192" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
-      <c r="S192" s="1"/>
-      <c r="T192" s="1"/>
+    <row r="192" spans="1:21" s="3" customFormat="1">
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
       <c r="U192"/>
     </row>
-    <row r="193" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
+    <row r="193" spans="1:21" s="1" customFormat="1">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="3"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
       <c r="U193"/>
     </row>
-    <row r="194" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" s="1" customFormat="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -9551,27 +9761,15 @@
       <c r="T194" s="3"/>
       <c r="U194"/>
     </row>
-    <row r="195" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
+    <row r="195" spans="1:21" s="1" customFormat="1">
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
-      <c r="O195" s="3"/>
-      <c r="P195" s="3"/>
-      <c r="Q195" s="3"/>
-      <c r="R195" s="3"/>
-      <c r="S195" s="3"/>
-      <c r="T195" s="3"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
       <c r="U195"/>
     </row>
-    <row r="196" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" s="1" customFormat="1">
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="J196" s="2"/>
@@ -9579,15 +9777,30 @@
       <c r="L196" s="2"/>
       <c r="U196"/>
     </row>
-    <row r="197" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" s="3" customFormat="1">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
+      <c r="I197" s="1"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
       <c r="U197"/>
     </row>
-    <row r="198" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -9608,76 +9821,61 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
-      <c r="U198"/>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I199" s="3"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+    </row>
+    <row r="200" spans="1:21" s="1" customFormat="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="4"/>
-      <c r="K200" s="4"/>
-      <c r="L200" s="4"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
-    </row>
-    <row r="201" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-      <c r="J201"/>
-      <c r="K201"/>
-      <c r="L201"/>
-      <c r="M201"/>
-      <c r="N201"/>
-      <c r="O201"/>
-      <c r="P201"/>
-      <c r="Q201"/>
-      <c r="R201"/>
-      <c r="S201"/>
-      <c r="T201"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
+      <c r="Q200"/>
+      <c r="R200"/>
+      <c r="S200"/>
+      <c r="T200"/>
+      <c r="U200"/>
+    </row>
+    <row r="201" spans="1:21" s="1" customFormat="1">
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
       <c r="U201"/>
     </row>
-    <row r="202" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" s="1" customFormat="1">
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="J202" s="2"/>
@@ -9685,70 +9883,84 @@
       <c r="L202" s="2"/>
       <c r="U202"/>
     </row>
-    <row r="203" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
+    <row r="203" spans="1:21" s="1" customFormat="1">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
       <c r="U203"/>
     </row>
-    <row r="204" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
-      <c r="O204" s="3"/>
-      <c r="P204" s="3"/>
-      <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="3"/>
-      <c r="T204" s="3"/>
-      <c r="U204"/>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-      <c r="S205" s="1"/>
-      <c r="T205" s="1"/>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:21">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+    </row>
+    <row r="208" spans="1:21" s="3" customFormat="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -9769,85 +9981,85 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
-    </row>
-    <row r="209" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-      <c r="S209" s="1"/>
-      <c r="T209" s="1"/>
-      <c r="U209"/>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="4"/>
-      <c r="K210" s="4"/>
-      <c r="L210" s="4"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
-      <c r="P210" s="3"/>
-      <c r="Q210" s="3"/>
-      <c r="R210" s="3"/>
-      <c r="S210" s="3"/>
-      <c r="T210" s="3"/>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U208"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+    </row>
+    <row r="211" spans="1:21">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:21">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+    </row>
+    <row r="214" spans="1:21" s="3" customFormat="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -9868,85 +10080,85 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
-    </row>
-    <row r="215" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="U215"/>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="4"/>
-      <c r="K216" s="4"/>
-      <c r="L216" s="4"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
-      <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
-      <c r="R216" s="3"/>
-      <c r="S216" s="3"/>
-      <c r="T216" s="3"/>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U214"/>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
+      <c r="T215" s="3"/>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:21">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+    </row>
+    <row r="220" spans="1:21" s="3" customFormat="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -9967,131 +10179,132 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
-    </row>
-    <row r="221" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="U221"/>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
-      <c r="R222" s="3"/>
-      <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U220"/>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+    </row>
+    <row r="223" spans="1:21">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-      <c r="S223" s="1"/>
-      <c r="T223" s="1"/>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D225"/>
-      <c r="E225"/>
-      <c r="F225"/>
-      <c r="G225"/>
-      <c r="H225"/>
-      <c r="I225"/>
-      <c r="J225"/>
-      <c r="K225"/>
-      <c r="L225"/>
-      <c r="M225"/>
-      <c r="N225"/>
-      <c r="O225"/>
-      <c r="P225"/>
-      <c r="Q225"/>
-      <c r="R225"/>
-      <c r="S225"/>
-      <c r="T225"/>
+    </row>
+    <row r="224" spans="1:21" s="1" customFormat="1">
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
+      <c r="L224"/>
+      <c r="M224"/>
+      <c r="N224"/>
+      <c r="O224"/>
+      <c r="P224"/>
+      <c r="Q224"/>
+      <c r="R224"/>
+      <c r="S224"/>
+      <c r="T224"/>
+      <c r="U224"/>
+    </row>
+    <row r="225" spans="1:21" s="1" customFormat="1">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
       <c r="U225"/>
     </row>
-    <row r="226" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
+    <row r="226" spans="1:21" s="3" customFormat="1">
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
-      <c r="I226" s="3"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
-      <c r="P226" s="3"/>
-      <c r="Q226" s="3"/>
-      <c r="R226" s="3"/>
-      <c r="S226" s="3"/>
-      <c r="T226" s="3"/>
       <c r="U226"/>
     </row>
-    <row r="227" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" s="1" customFormat="1">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
+      <c r="I227" s="3"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
       <c r="U227"/>
     </row>
-    <row r="228" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -10112,36 +10325,21 @@
       <c r="R228" s="3"/>
       <c r="S228" s="3"/>
       <c r="T228" s="3"/>
-      <c r="U228"/>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:21">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
-      <c r="Q229" s="3"/>
-      <c r="R229" s="3"/>
-      <c r="S229" s="3"/>
-      <c r="T229" s="3"/>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-    </row>
-    <row r="231" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:21" s="3" customFormat="1">
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="U230"/>
+    </row>
+    <row r="231" spans="1:21" s="3" customFormat="1">
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="J231" s="4"/>
@@ -10149,7 +10347,7 @@
       <c r="L231" s="4"/>
       <c r="U231"/>
     </row>
-    <row r="232" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" s="3" customFormat="1">
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="J232" s="4"/>
@@ -10157,7 +10355,7 @@
       <c r="L232" s="4"/>
       <c r="U232"/>
     </row>
-    <row r="233" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" s="3" customFormat="1">
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="J233" s="4"/>
@@ -10165,683 +10363,675 @@
       <c r="L233" s="4"/>
       <c r="U233"/>
     </row>
-    <row r="234" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G234" s="4"/>
-      <c r="H234" s="4"/>
-      <c r="J234" s="4"/>
-      <c r="K234" s="4"/>
-      <c r="L234" s="4"/>
-      <c r="U234"/>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:21">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="1:21">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
